--- a/Tailieu/Khaosat/Tổng hợp BBPH_22112022.xlsx
+++ b/Tailieu/Khaosat/Tổng hợp BBPH_22112022.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\BBPH\Tailieu\Khaosat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\BBPH\Tailieu\Khaosat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DCCA2A-F1F5-47C7-9742-904BCE8969C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yêu cầu" sheetId="1" r:id="rId1"/>
@@ -19,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Tổ thổi</t>
   </si>
@@ -57,9 +50,6 @@
   </si>
   <si>
     <t>Ưu tiên kích thước túi</t>
-  </si>
-  <si>
-    <t>Máy chạy các loại sản phẩm</t>
   </si>
   <si>
     <t xml:space="preserve">Máy chạy 3 biên (4,5,6)
@@ -201,9 +191,6 @@
     <t>Mức độ ưu tiên khi điều độ: Hệ mực =&gt; Lô =&gt; Màu mực =&gt; Trục in</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Mức độ ưu tiên khi điều độ: Loại keo -&gt; gr keo -&gt; Khổ màng</t>
   </si>
   <si>
@@ -229,10 +216,6 @@
   </si>
   <si>
     <t>Túi 3 biên không cần chia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 
-2. </t>
   </si>
   <si>
     <t>Túi hàn lưng xếp hông và túi 4 biên (&gt;= 2 con) thì cần chia</t>
@@ -241,8 +224,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,8 +257,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,8 +277,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -327,19 +322,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -362,74 +344,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -441,8 +397,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,574 +731,392 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" customWidth="1"/>
-    <col min="4" max="4" width="47.5703125" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1"/>
-    <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B27" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-    </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B39" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="20"/>
-    </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="20"/>
-    </row>
-    <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="20"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="20"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="20"/>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="20"/>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="22" t="s">
+      <c r="C39" s="15"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
+      <c r="B40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="29" t="s">
+      <c r="C40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
+      <c r="B42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="11"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="11"/>
+      <c r="B44" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="11"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="11"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="11"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="20"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="20"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="20"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="20"/>
-    </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="20"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="20"/>
-    </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="2" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="11"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="20"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="20"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
